--- a/Leçon chimie/LC 10 /LC 10-Capteurs électrochimiques.xlsx
+++ b/Leçon chimie/LC 10 /LC 10-Capteurs électrochimiques.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="60" windowWidth="17600" windowHeight="15040" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vérification loi de Nernst" sheetId="1" r:id="rId1"/>
     <sheet name="Titrage potentiométriqu de Fe2+" sheetId="2" r:id="rId2"/>
     <sheet name="Dosage par étallonage de NaCl" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t xml:space="preserve">Vérification de la loi de Nernst : </t>
   </si>
@@ -131,9 +134,6 @@
     <t>Dosage par étallonage de la solution dilluée</t>
   </si>
   <si>
-    <t>Regressi</t>
-  </si>
-  <si>
     <t>Concentration du sérum physiologique</t>
   </si>
   <si>
@@ -221,7 +221,28 @@
     <t xml:space="preserve">Pipette graduée 12,5 + pipette jaugée de 25 mL </t>
   </si>
   <si>
-    <t>Faire celle-ci devant le jury … C'est la plus rapide</t>
+    <t>Masse molaire Fer (g/mol)</t>
+  </si>
+  <si>
+    <t>Concentration massique en Fe2+ (mg/L)</t>
+  </si>
+  <si>
+    <t>Conductimètre</t>
+  </si>
+  <si>
+    <t>Conductivité σ1 (mS/cm)</t>
+  </si>
+  <si>
+    <t>Conductivité σ2 (mS/cm)</t>
+  </si>
+  <si>
+    <t>Conductivité σ3 (mS/cm)</t>
+  </si>
+  <si>
+    <t>Conductivité σ4 (mS/cm)</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,18 +336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -442,47 +457,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,20 +508,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -557,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -570,21 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,48 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,14 +572,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -671,6 +661,9 @@
     <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -690,11 +683,319 @@
     <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Courbe d'étallonage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Dosage par étallonage de NaCl'!$D$9,'Dosage par étallonage de NaCl'!$D$13,'Dosage par étallonage de NaCl'!$D$17,'Dosage par étallonage de NaCl'!$D$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0.0075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Dosage par étallonage de NaCl'!$D$10,'Dosage par étallonage de NaCl'!$D$14,'Dosage par étallonage de NaCl'!$D$18,'Dosage par étallonage de NaCl'!$D$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2089288152"/>
+        <c:axId val="2086341480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2089288152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Concentration (moL/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086341480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2086341480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>COnductivité (mS/cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" baseline="0"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089288152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dosage par étallonage du E131"/>
+      <sheetName val="Dosage par étallonage de NaCl"/>
+      <sheetName val="Titrage NaCl"/>
+      <sheetName val="Titrage vinaigre"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="15">
+          <cell r="D15">
+            <v>2</v>
+          </cell>
+          <cell r="E15">
+            <v>5.0249378105604453E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>4</v>
+          </cell>
+          <cell r="E19">
+            <v>5.0990195135927854E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>6</v>
+          </cell>
+          <cell r="E23">
+            <v>5.2201532544552745E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>8</v>
+          </cell>
+          <cell r="E27">
+            <v>5.385164807134505E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>1.26</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,185 +1340,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="32" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>392.13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="15" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>482.19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.39</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>1E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>1E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <f>(C7/I5)/C8</f>
         <v>9.9456812791676227E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <f>C9*SQRT((D8/C8)^2+(D7/C7)^2)</f>
         <v>2.7372534948576249E-5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="G10" s="7" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>0.48</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <f>0.00005</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>0.1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>1E-4</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <f>0.00005</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <f>(C11/I6)/C12</f>
         <v>9.9545822186275102E-3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <f>C13*SQRT((D12/C12)^2+(D11/C11)^2)</f>
         <v>2.3004084902402863E-5</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <f>SQRT(H10^2+(H10+H11+H12)^2)</f>
         <v>1.5811388300841897E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
@@ -1242,60 +1543,60 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>392.13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="15" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>482.19</v>
       </c>
     </row>
@@ -1304,111 +1605,126 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3">
+        <v>55.844999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="4">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D6" s="13">
         <f>H11</f>
         <v>1.5811388300841897E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.02</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <f>C6*C5/C8</f>
-        <v>4.9500000000000009E-2</v>
-      </c>
-      <c r="D9" s="22">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="D9" s="18">
         <f>C9*SQRT((D8/C8)^2+(D6/C6)^2+(D5/C5)^2)</f>
-        <v>7.9674399903607699E-4</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>7.9699498116362065E-6</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <f>0.00005</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="G10" s="12" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="43">
+        <f>C9*I5*1000</f>
+        <v>28.201725</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10*D9/C9</f>
+        <v>0.44508184723082395</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <f>0.00005</f>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="G11" s="13" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <f>SQRT(H8^2+(H8+H9+H10)^2)</f>
         <v>1.5811388300841897E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1428,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1442,477 +1758,520 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="66" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="62"/>
+      <c r="B8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="D8" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="62"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="38">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="39"/>
-      <c r="B8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="38">
-        <v>1E-4</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="41"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="D9" s="29">
         <f>D5*D7/D8</f>
         <v>1E-3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="29">
         <f>D9*SQRT((E8/D8)^2+(E7/D7)^2)</f>
         <v>2.2360679774997895E-6</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="54"/>
+      <c r="B12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="61">
+        <f>D5*D11/D12</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E13" s="61">
+        <f>D13*SQRT((E12/D12)^2+(E11/D11)^2)</f>
+        <v>3.9051248379533266E-6</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="55"/>
+      <c r="B14" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0.48</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B15" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E15" s="31">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="64"/>
+      <c r="B16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="68">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D16" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="31">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="64"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="27"/>
-      <c r="C12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="69">
-        <f>D5*D10/D11</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E12" s="7">
-        <f>D12*SQRT((E11/D11)^2+(E10/D10)^2)</f>
-        <v>3.9051248379533266E-6</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="42" t="s">
+      <c r="D17" s="31">
+        <f>D5*D15/D16</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="31">
+        <f>D17*SQRT((E16/D16)^2+(E15/D15)^2)</f>
+        <v>8.4852813742385697E-6</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="57"/>
+      <c r="B18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0.91</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="41">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="65"/>
+      <c r="B20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="53">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E13" s="55">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="47" t="s">
+      <c r="D20" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="34">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="65"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="54">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="55">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="48"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="54">
-        <f>D5*D13/D14</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E15" s="55">
-        <f>D15*SQRT((E14/D14)^2+(E13/D13)^2)</f>
-        <v>8.4852813742385697E-6</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="68">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="E16" s="56">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="28"/>
-      <c r="B17" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="56">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="30"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="69">
-        <f>D5*D16/D17</f>
+      <c r="D21" s="42">
+        <f>D5*D19/D20</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E18" s="56">
-        <f>D18*SQRT((E17/D17)^2+(E16/D16)^2)</f>
+      <c r="E21" s="34">
+        <f>D21*SQRT((E20/D20)^2+(E19/D19)^2)</f>
         <v>1.8357559750685819E-5</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="65"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1.27</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="57" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="61" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C29" s="35">
         <f>0.005</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D29" s="35">
         <f>0.000015</f>
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="61" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C30" s="36">
         <v>0.2</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D30" s="36">
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="57" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="61" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="62">
-        <v>3.9399999999999999E-3</v>
-      </c>
-      <c r="D27" s="61"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="57" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="36">
+        <f>C33*C30/C29</f>
+        <v>0.16</v>
+      </c>
+      <c r="D36" s="36">
+        <f>C36*SQRT((D33/C33)^2+(D30/C30)^2+(D29/C29)^2)</f>
+        <v>1.2010195668680839E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="36">
+        <f>C42*C36</f>
+        <v>9.3504000000000005</v>
+      </c>
+      <c r="D39" s="36">
+        <f>C39*D36/C36</f>
+        <v>0.70187583487770822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30">
+      <c r="A42" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="62">
-        <f>C27*C24/C23</f>
-        <v>0.15760000000000002</v>
-      </c>
-      <c r="D30" s="62">
-        <f>C30*SQRT((D27/C27)^2+(D24/C24)^2+(D23/C23)^2)</f>
-        <v>4.8735108494800758E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="62">
-        <f>C36*C30</f>
-        <v>9.2101440000000014</v>
-      </c>
-      <c r="D33" s="62">
-        <f>C33*D30/C30</f>
-        <v>2.8480797404361564E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30">
-      <c r="A36" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="65">
+      <c r="C42" s="39">
         <v>58.44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
